--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf8-Fgfrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf8-Fgfrl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Fgf8</t>
+  </si>
+  <si>
+    <t>Fgfrl1</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Fgf8</t>
-  </si>
-  <si>
-    <t>Fgfrl1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06417100000000001</v>
+        <v>0.008099333333333333</v>
       </c>
       <c r="H2">
-        <v>0.128342</v>
+        <v>0.024298</v>
       </c>
       <c r="I2">
-        <v>0.3707399083708381</v>
+        <v>0.03427653281966027</v>
       </c>
       <c r="J2">
-        <v>0.2820108284845396</v>
+        <v>0.05054848581301346</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.1331785</v>
+        <v>1.170631</v>
       </c>
       <c r="N2">
-        <v>2.266357</v>
+        <v>2.341262</v>
       </c>
       <c r="O2">
-        <v>0.127252734974101</v>
+        <v>0.1596624636318675</v>
       </c>
       <c r="P2">
-        <v>0.1025085582972401</v>
+        <v>0.1281983861842902</v>
       </c>
       <c r="Q2">
-        <v>0.07271719752350002</v>
+        <v>0.009481330679333334</v>
       </c>
       <c r="R2">
-        <v>0.2908687900940001</v>
+        <v>0.056887984076</v>
       </c>
       <c r="S2">
-        <v>0.04717766730423677</v>
+        <v>0.005472675674745521</v>
       </c>
       <c r="T2">
-        <v>0.02890852345216041</v>
+        <v>0.006480234305287815</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06417100000000001</v>
+        <v>0.008099333333333333</v>
       </c>
       <c r="H3">
-        <v>0.128342</v>
+        <v>0.024298</v>
       </c>
       <c r="I3">
-        <v>0.3707399083708381</v>
+        <v>0.03427653281966027</v>
       </c>
       <c r="J3">
-        <v>0.2820108284845396</v>
+        <v>0.05054848581301346</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>9.020752999999999</v>
       </c>
       <c r="O3">
-        <v>0.3376683346227232</v>
+        <v>0.4101137613801331</v>
       </c>
       <c r="P3">
-        <v>0.4080135586694874</v>
+        <v>0.4939412918191532</v>
       </c>
       <c r="Q3">
-        <v>0.1929569135876667</v>
+        <v>0.02435402848822222</v>
       </c>
       <c r="R3">
-        <v>1.157741481526</v>
+        <v>0.219186256394</v>
       </c>
       <c r="S3">
-        <v>0.1251871274377619</v>
+        <v>0.01405727780174045</v>
       </c>
       <c r="T3">
-        <v>0.1150642417133074</v>
+        <v>0.02496798438198201</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -664,19 +664,19 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06417100000000001</v>
+        <v>0.008099333333333333</v>
       </c>
       <c r="H4">
-        <v>0.128342</v>
+        <v>0.024298</v>
       </c>
       <c r="I4">
-        <v>0.3707399083708381</v>
+        <v>0.03427653281966027</v>
       </c>
       <c r="J4">
-        <v>0.2820108284845396</v>
+        <v>0.05054848581301346</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1833036666666666</v>
+        <v>0.1597873333333333</v>
       </c>
       <c r="N4">
-        <v>0.5499109999999999</v>
+        <v>0.479362</v>
       </c>
       <c r="O4">
-        <v>0.02058448242189054</v>
+        <v>0.02179340825346879</v>
       </c>
       <c r="P4">
-        <v>0.02487277326643313</v>
+        <v>0.02624799565280337</v>
       </c>
       <c r="Q4">
-        <v>0.01176277959366667</v>
+        <v>0.001294170875111111</v>
       </c>
       <c r="R4">
-        <v>0.07057667756199999</v>
+        <v>0.011647537876</v>
       </c>
       <c r="S4">
-        <v>0.007631489126952827</v>
+        <v>0.0007470024732522782</v>
       </c>
       <c r="T4">
-        <v>0.007014391395574915</v>
+        <v>0.00132679643587577</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06417100000000001</v>
+        <v>0.008099333333333333</v>
       </c>
       <c r="H5">
-        <v>0.128342</v>
+        <v>0.024298</v>
       </c>
       <c r="I5">
-        <v>0.3707399083708381</v>
+        <v>0.03427653281966027</v>
       </c>
       <c r="J5">
-        <v>0.2820108284845396</v>
+        <v>0.05054848581301346</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.4727</v>
+        <v>2.5622985</v>
       </c>
       <c r="N5">
-        <v>6.9454</v>
+        <v>5.124597</v>
       </c>
       <c r="O5">
-        <v>0.3899743709791181</v>
+        <v>0.349472114671693</v>
       </c>
       <c r="P5">
-        <v>0.3141442150542265</v>
+        <v>0.2806029676494365</v>
       </c>
       <c r="Q5">
-        <v>0.2228466317</v>
+        <v>0.020752909651</v>
       </c>
       <c r="R5">
-        <v>0.8913865268000001</v>
+        <v>0.124517457906</v>
       </c>
       <c r="S5">
-        <v>0.1445790625637735</v>
+        <v>0.01197869240810036</v>
       </c>
       <c r="T5">
-        <v>0.08859207035106777</v>
+        <v>0.01418405512931702</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.06417100000000001</v>
+        <v>0.008099333333333333</v>
       </c>
       <c r="H6">
-        <v>0.128342</v>
+        <v>0.024298</v>
       </c>
       <c r="I6">
-        <v>0.3707399083708381</v>
+        <v>0.03427653281966027</v>
       </c>
       <c r="J6">
-        <v>0.2820108284845396</v>
+        <v>0.05054848581301346</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8583593333333334</v>
+        <v>0.2687716666666666</v>
       </c>
       <c r="N6">
-        <v>2.575078</v>
+        <v>0.8063149999999999</v>
       </c>
       <c r="O6">
-        <v>0.09639132118833238</v>
+        <v>0.03665779093022745</v>
       </c>
       <c r="P6">
-        <v>0.1164721768383977</v>
+        <v>0.04415066821064279</v>
       </c>
       <c r="Q6">
-        <v>0.05508177677933334</v>
+        <v>0.002176871318888889</v>
       </c>
       <c r="R6">
-        <v>0.330490660676</v>
+        <v>0.01959184187</v>
       </c>
       <c r="S6">
-        <v>0.03573610958510638</v>
+        <v>0.001256501973916186</v>
       </c>
       <c r="T6">
-        <v>0.03284641508559433</v>
+        <v>0.002231749425680741</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -850,49 +850,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.06417100000000001</v>
+        <v>0.008099333333333333</v>
       </c>
       <c r="H7">
-        <v>0.128342</v>
+        <v>0.024298</v>
       </c>
       <c r="I7">
-        <v>0.3707399083708381</v>
+        <v>0.03427653281966027</v>
       </c>
       <c r="J7">
-        <v>0.2820108284845396</v>
+        <v>0.05054848581301346</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.250485</v>
+        <v>0.163505</v>
       </c>
       <c r="N7">
-        <v>0.751455</v>
+        <v>0.490515</v>
       </c>
       <c r="O7">
-        <v>0.02812875581383489</v>
+        <v>0.02230046113261011</v>
       </c>
       <c r="P7">
-        <v>0.03398871787421513</v>
+        <v>0.02685869048367381</v>
       </c>
       <c r="Q7">
-        <v>0.016073872935</v>
+        <v>0.001324281496666667</v>
       </c>
       <c r="R7">
-        <v>0.09644323761000001</v>
+        <v>0.01191853347</v>
       </c>
       <c r="S7">
-        <v>0.01042845235300683</v>
+        <v>0.0007643824879054686</v>
       </c>
       <c r="T7">
-        <v>0.009585186486834686</v>
+        <v>0.001357666134870105</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.008099333333333333</v>
+        <v>0.2281945</v>
       </c>
       <c r="H8">
-        <v>0.024298</v>
+        <v>0.456389</v>
       </c>
       <c r="I8">
-        <v>0.04679288304475347</v>
+        <v>0.9657234671803397</v>
       </c>
       <c r="J8">
-        <v>0.05339093290206901</v>
+        <v>0.9494515141869866</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.1331785</v>
+        <v>1.170631</v>
       </c>
       <c r="N8">
-        <v>2.266357</v>
+        <v>2.341262</v>
       </c>
       <c r="O8">
-        <v>0.127252734974101</v>
+        <v>0.1596624636318675</v>
       </c>
       <c r="P8">
-        <v>0.1025085582972401</v>
+        <v>0.1281983861842902</v>
       </c>
       <c r="Q8">
-        <v>0.009177990397666667</v>
+        <v>0.2671315557295</v>
       </c>
       <c r="R8">
-        <v>0.055067942386</v>
+        <v>1.068526222918</v>
       </c>
       <c r="S8">
-        <v>0.005954522344768119</v>
+        <v>0.154189787957122</v>
       </c>
       <c r="T8">
-        <v>0.005473027557935777</v>
+        <v>0.1217181518790024</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.008099333333333333</v>
+        <v>0.2281945</v>
       </c>
       <c r="H9">
-        <v>0.024298</v>
+        <v>0.456389</v>
       </c>
       <c r="I9">
-        <v>0.04679288304475347</v>
+        <v>0.9657234671803397</v>
       </c>
       <c r="J9">
-        <v>0.05339093290206901</v>
+        <v>0.9494515141869866</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>9.020752999999999</v>
       </c>
       <c r="O9">
-        <v>0.3376683346227232</v>
+        <v>0.4101137613801331</v>
       </c>
       <c r="P9">
-        <v>0.4080135586694874</v>
+        <v>0.4939412918191532</v>
       </c>
       <c r="Q9">
-        <v>0.02435402848822222</v>
+        <v>0.6861620734861665</v>
       </c>
       <c r="R9">
-        <v>0.219186256394</v>
+        <v>4.116972440916999</v>
       </c>
       <c r="S9">
-        <v>0.01580047488991777</v>
+        <v>0.3960564835783927</v>
       </c>
       <c r="T9">
-        <v>0.021784224534057</v>
+        <v>0.4689733074371712</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -1036,19 +1036,19 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.008099333333333333</v>
+        <v>0.2281945</v>
       </c>
       <c r="H10">
-        <v>0.024298</v>
+        <v>0.456389</v>
       </c>
       <c r="I10">
-        <v>0.04679288304475347</v>
+        <v>0.9657234671803397</v>
       </c>
       <c r="J10">
-        <v>0.05339093290206901</v>
+        <v>0.9494515141869866</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,28 +1057,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1833036666666666</v>
+        <v>0.1597873333333333</v>
       </c>
       <c r="N10">
-        <v>0.5499109999999999</v>
+        <v>0.479362</v>
       </c>
       <c r="O10">
-        <v>0.02058448242189054</v>
+        <v>0.02179340825346879</v>
       </c>
       <c r="P10">
-        <v>0.02487277326643313</v>
+        <v>0.02624799565280337</v>
       </c>
       <c r="Q10">
-        <v>0.001484637497555555</v>
+        <v>0.03646259063633334</v>
       </c>
       <c r="R10">
-        <v>0.013361737478</v>
+        <v>0.218775543818</v>
       </c>
       <c r="S10">
-        <v>0.0009632072785043076</v>
+        <v>0.02104640578021652</v>
       </c>
       <c r="T10">
-        <v>0.001327980568556507</v>
+        <v>0.02492119921692761</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.008099333333333333</v>
+        <v>0.2281945</v>
       </c>
       <c r="H11">
-        <v>0.024298</v>
+        <v>0.456389</v>
       </c>
       <c r="I11">
-        <v>0.04679288304475347</v>
+        <v>0.9657234671803397</v>
       </c>
       <c r="J11">
-        <v>0.05339093290206901</v>
+        <v>0.9494515141869866</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.4727</v>
+        <v>2.5622985</v>
       </c>
       <c r="N11">
-        <v>6.9454</v>
+        <v>5.124597</v>
       </c>
       <c r="O11">
-        <v>0.3899743709791181</v>
+        <v>0.349472114671693</v>
       </c>
       <c r="P11">
-        <v>0.3141442150542265</v>
+        <v>0.2806029676494365</v>
       </c>
       <c r="Q11">
-        <v>0.02812655486666667</v>
+        <v>0.58470242505825</v>
       </c>
       <c r="R11">
-        <v>0.1687593292</v>
+        <v>2.338809700233</v>
       </c>
       <c r="S11">
-        <v>0.01824802513167718</v>
+        <v>0.3374934222635927</v>
       </c>
       <c r="T11">
-        <v>0.01677245270753334</v>
+        <v>0.2664189125201195</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.008099333333333333</v>
+        <v>0.2281945</v>
       </c>
       <c r="H12">
-        <v>0.024298</v>
+        <v>0.456389</v>
       </c>
       <c r="I12">
-        <v>0.04679288304475347</v>
+        <v>0.9657234671803397</v>
       </c>
       <c r="J12">
-        <v>0.05339093290206901</v>
+        <v>0.9494515141869866</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8583593333333334</v>
+        <v>0.2687716666666666</v>
       </c>
       <c r="N12">
-        <v>2.575078</v>
+        <v>0.8063149999999999</v>
       </c>
       <c r="O12">
-        <v>0.09639132118833238</v>
+        <v>0.03665779093022745</v>
       </c>
       <c r="P12">
-        <v>0.1164721768383977</v>
+        <v>0.04415066821064279</v>
       </c>
       <c r="Q12">
-        <v>0.006952138360444444</v>
+        <v>0.06133221608916666</v>
       </c>
       <c r="R12">
-        <v>0.062569245244</v>
+        <v>0.367993296535</v>
       </c>
       <c r="S12">
-        <v>0.004510427818894904</v>
+        <v>0.03540128895631126</v>
       </c>
       <c r="T12">
-        <v>0.006218558178536807</v>
+        <v>0.04191891878496205</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1222,421 +1222,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.008099333333333333</v>
+        <v>0.2281945</v>
       </c>
       <c r="H13">
-        <v>0.024298</v>
+        <v>0.456389</v>
       </c>
       <c r="I13">
-        <v>0.04679288304475347</v>
+        <v>0.9657234671803397</v>
       </c>
       <c r="J13">
-        <v>0.05339093290206901</v>
+        <v>0.9494515141869866</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.250485</v>
+        <v>0.163505</v>
       </c>
       <c r="N13">
-        <v>0.751455</v>
+        <v>0.490515</v>
       </c>
       <c r="O13">
-        <v>0.02812875581383489</v>
+        <v>0.02230046113261011</v>
       </c>
       <c r="P13">
-        <v>0.03398871787421513</v>
+        <v>0.02685869048367381</v>
       </c>
       <c r="Q13">
-        <v>0.00202876151</v>
+        <v>0.0373109417225</v>
       </c>
       <c r="R13">
-        <v>0.01825885359</v>
+        <v>0.223865650335</v>
       </c>
       <c r="S13">
-        <v>0.001316225580991205</v>
+        <v>0.02153607864470464</v>
       </c>
       <c r="T13">
-        <v>0.001814689355449573</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.1008186666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.302456</v>
-      </c>
-      <c r="I14">
-        <v>0.5824672085844085</v>
-      </c>
-      <c r="J14">
-        <v>0.6645982386133915</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1.1331785</v>
-      </c>
-      <c r="N14">
-        <v>2.266357</v>
-      </c>
-      <c r="O14">
-        <v>0.127252734974101</v>
-      </c>
-      <c r="P14">
-        <v>0.1025085582972401</v>
-      </c>
-      <c r="Q14">
-        <v>0.1142455454653333</v>
-      </c>
-      <c r="R14">
-        <v>0.6854732727920001</v>
-      </c>
-      <c r="S14">
-        <v>0.07412054532509615</v>
-      </c>
-      <c r="T14">
-        <v>0.06812700728714395</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.1008186666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.302456</v>
-      </c>
-      <c r="I15">
-        <v>0.5824672085844085</v>
-      </c>
-      <c r="J15">
-        <v>0.6645982386133915</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>3.006917666666666</v>
-      </c>
-      <c r="N15">
-        <v>9.020752999999999</v>
-      </c>
-      <c r="O15">
-        <v>0.3376683346227232</v>
-      </c>
-      <c r="P15">
-        <v>0.4080135586694874</v>
-      </c>
-      <c r="Q15">
-        <v>0.3031534299297777</v>
-      </c>
-      <c r="R15">
-        <v>2.728380869368</v>
-      </c>
-      <c r="S15">
-        <v>0.1966807322950436</v>
-      </c>
-      <c r="T15">
-        <v>0.271165092422123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.1008186666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.302456</v>
-      </c>
-      <c r="I16">
-        <v>0.5824672085844085</v>
-      </c>
-      <c r="J16">
-        <v>0.6645982386133915</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.1833036666666666</v>
-      </c>
-      <c r="N16">
-        <v>0.5499109999999999</v>
-      </c>
-      <c r="O16">
-        <v>0.02058448242189054</v>
-      </c>
-      <c r="P16">
-        <v>0.02487277326643313</v>
-      </c>
-      <c r="Q16">
-        <v>0.01848043126844444</v>
-      </c>
-      <c r="R16">
-        <v>0.166323881416</v>
-      </c>
-      <c r="S16">
-        <v>0.01198978601643341</v>
-      </c>
-      <c r="T16">
-        <v>0.01653040130230171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.1008186666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.302456</v>
-      </c>
-      <c r="I17">
-        <v>0.5824672085844085</v>
-      </c>
-      <c r="J17">
-        <v>0.6645982386133915</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>3.4727</v>
-      </c>
-      <c r="N17">
-        <v>6.9454</v>
-      </c>
-      <c r="O17">
-        <v>0.3899743709791181</v>
-      </c>
-      <c r="P17">
-        <v>0.3141442150542265</v>
-      </c>
-      <c r="Q17">
-        <v>0.3501129837333333</v>
-      </c>
-      <c r="R17">
-        <v>2.1006779024</v>
-      </c>
-      <c r="S17">
-        <v>0.2271472832836675</v>
-      </c>
-      <c r="T17">
-        <v>0.2087796919956254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.1008186666666667</v>
-      </c>
-      <c r="H18">
-        <v>0.302456</v>
-      </c>
-      <c r="I18">
-        <v>0.5824672085844085</v>
-      </c>
-      <c r="J18">
-        <v>0.6645982386133915</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0.8583593333333334</v>
-      </c>
-      <c r="N18">
-        <v>2.575078</v>
-      </c>
-      <c r="O18">
-        <v>0.09639132118833238</v>
-      </c>
-      <c r="P18">
-        <v>0.1164721768383977</v>
-      </c>
-      <c r="Q18">
-        <v>0.08653864350755557</v>
-      </c>
-      <c r="R18">
-        <v>0.778847791568</v>
-      </c>
-      <c r="S18">
-        <v>0.05614478378433111</v>
-      </c>
-      <c r="T18">
-        <v>0.07740720357426656</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.1008186666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.302456</v>
-      </c>
-      <c r="I19">
-        <v>0.5824672085844085</v>
-      </c>
-      <c r="J19">
-        <v>0.6645982386133915</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.250485</v>
-      </c>
-      <c r="N19">
-        <v>0.751455</v>
-      </c>
-      <c r="O19">
-        <v>0.02812875581383489</v>
-      </c>
-      <c r="P19">
-        <v>0.03398871787421513</v>
-      </c>
-      <c r="Q19">
-        <v>0.02525356372</v>
-      </c>
-      <c r="R19">
-        <v>0.22728207348</v>
-      </c>
-      <c r="S19">
-        <v>0.01638407787983686</v>
-      </c>
-      <c r="T19">
-        <v>0.02258884203193087</v>
+        <v>0.02550102434880371</v>
       </c>
     </row>
   </sheetData>
